--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Seitenstruktur anpassen</t>
+  </si>
+  <si>
+    <t>Erstellen eines Anwendungsfalldiagramm</t>
   </si>
 </sst>
 </file>
@@ -402,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="1025" width="9.140625" customWidth="1"/>
@@ -433,7 +436,7 @@
         <v>43147</v>
       </c>
       <c r="G1" s="1">
-        <v>43136</v>
+        <v>43151</v>
       </c>
       <c r="H1" s="1">
         <v>43137</v>
@@ -510,6 +513,12 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -547,6 +556,14 @@
       </c>
       <c r="F11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Profil Seite erstellen</t>
+  </si>
+  <si>
+    <t>Gespeicherte Prozeduren erstellen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use case diagramm erstellen </t>
   </si>
 </sst>
 </file>
@@ -405,15 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="1025" width="9.140625" customWidth="1"/>
@@ -513,6 +519,15 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -564,6 +579,28 @@
       </c>
       <c r="I12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">use case diagramm erstellen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokumentazon </t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +454,7 @@
         <v>43158</v>
       </c>
       <c r="J1" s="1">
-        <v>43139</v>
+        <v>43161</v>
       </c>
       <c r="K1" s="1">
         <v>43140</v>
@@ -600,6 +603,17 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dokumentazon </t>
+  </si>
+  <si>
+    <t>PHP Code SQL injection sicher machen</t>
   </si>
 </sst>
 </file>
@@ -414,15 +417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="1025" width="9.140625" customWidth="1"/>
@@ -457,7 +460,7 @@
         <v>43161</v>
       </c>
       <c r="K1" s="1">
-        <v>43140</v>
+        <v>43165</v>
       </c>
       <c r="L1" s="1">
         <v>43141</v>
@@ -614,6 +617,14 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -417,7 +417,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I15" sqref="I15:J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +457,7 @@
         <v>43161</v>
       </c>
       <c r="K1" s="1">
-        <v>43140</v>
+        <v>43165</v>
       </c>
       <c r="L1" s="1">
         <v>43141</v>
@@ -567,6 +567,12 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -74,7 +74,16 @@
     <t xml:space="preserve">use case diagramm erstellen </t>
   </si>
   <si>
-    <t xml:space="preserve">Dokumentazon </t>
+    <t xml:space="preserve">Dokumentation </t>
+  </si>
+  <si>
+    <t>Navleiste /-design</t>
+  </si>
+  <si>
+    <t>Profildesign</t>
+  </si>
+  <si>
+    <t>Login- und Registrierungverbessreung und Design</t>
   </si>
 </sst>
 </file>
@@ -414,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15:J15"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="5" max="1025" width="9.140625" customWidth="1"/>
@@ -621,6 +630,48 @@
       </c>
       <c r="J15" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Protokoll.xlsx
+++ b/Protokoll.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>Datenbankmodell ausarbeiten</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Login- und Registrierungverbessreung und Design</t>
+  </si>
+  <si>
+    <t>Berwertungssystem</t>
   </si>
 </sst>
 </file>
@@ -423,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +440,7 @@
     <col min="5" max="1025" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>43126</v>
       </c>
@@ -469,19 +472,31 @@
         <v>43165</v>
       </c>
       <c r="L1" s="1">
-        <v>43141</v>
+        <v>43167</v>
       </c>
       <c r="M1" s="1">
-        <v>43142</v>
+        <v>43168</v>
       </c>
       <c r="N1" s="1">
-        <v>43143</v>
+        <v>43172</v>
       </c>
       <c r="O1" s="1">
-        <v>43144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>43174</v>
+      </c>
+      <c r="P1" s="1">
+        <v>43175</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>43179</v>
+      </c>
+      <c r="R1" s="1">
+        <v>43181</v>
+      </c>
+      <c r="S1" s="1">
+        <v>43182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -489,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -497,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -505,7 +520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -513,7 +528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -527,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -541,7 +556,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -549,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -557,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -568,7 +583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -584,8 +599,20 @@
       <c r="K11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -599,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -613,7 +640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -621,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -632,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -643,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -657,7 +684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -672,6 +699,23 @@
       </c>
       <c r="K18" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19" t="s">
+        <v>8</v>
+      </c>
+      <c r="S19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
